--- a/data/trans_dic/P1426-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1426-Clase-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.01462992405363693</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.03783589481628485</v>
+        <v>0.03783589481628484</v>
       </c>
     </row>
     <row r="5">
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004918623456941617</v>
+        <v>0.004423193819602452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02843532775818548</v>
+        <v>0.02689783054192537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003470361185974958</v>
+        <v>0.003382662365076472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005892237965752433</v>
+        <v>0.006155741371870115</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02083741827368097</v>
+        <v>0.02195035021586551</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002598129966168993</v>
+        <v>0.002547185655844832</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007537326898523536</v>
+        <v>0.007378958667841883</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02792543093669856</v>
+        <v>0.02873783915058329</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01440920140043746</v>
+        <v>0.01347215858591578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0327539022882655</v>
+        <v>0.03123636189616031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05858730091765224</v>
+        <v>0.05820744365656649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02994092844072335</v>
+        <v>0.03215931516905635</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0375748122420641</v>
+        <v>0.03657760357614551</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05228179727327879</v>
+        <v>0.05092971545258704</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01437071819799676</v>
+        <v>0.014866371047816</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02719245014621697</v>
+        <v>0.02743273640106331</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04930431483445988</v>
+        <v>0.05061146352822975</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.005590069232789905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04699871062684938</v>
+        <v>0.04699871062684939</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.01687723038175973</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00248713181594851</v>
+        <v>0.002459314898187672</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03178868022882137</v>
+        <v>0.03114510568838232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00513715623823642</v>
+        <v>0.005876472589090133</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002507668960857374</v>
+        <v>0.002486408128110787</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01228844744890075</v>
+        <v>0.01269552033350719</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006566729369930751</v>
+        <v>0.006544531017215152</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002793179987092086</v>
+        <v>0.002804307932416795</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02615837557521002</v>
+        <v>0.02532106603737664</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02877101817757778</v>
+        <v>0.03148083431110765</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01982354706154111</v>
+        <v>0.01722938539422863</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06758931341359337</v>
+        <v>0.06642365720100961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03682746880797925</v>
+        <v>0.03940505759290013</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03416206144168704</v>
+        <v>0.03352146298550536</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03500526273299075</v>
+        <v>0.0362204546972378</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02716293232080248</v>
+        <v>0.02706915299194891</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01962038603245235</v>
+        <v>0.01979689042131528</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04805486457701439</v>
+        <v>0.04799165343146663</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.02687252404667848</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0399961006505274</v>
+        <v>0.03999610065052739</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.0192715384845871</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0107840258652321</v>
+        <v>0.01091203790552977</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009239107687395118</v>
+        <v>0.00883725845212582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03199776662529658</v>
+        <v>0.03313667897232515</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004231773500382795</v>
+        <v>0.004059624088265336</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006833165422418219</v>
+        <v>0.007468749787095461</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02180759498238741</v>
+        <v>0.022758909303478</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009917588374829108</v>
+        <v>0.01142092091790465</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01130635403901462</v>
+        <v>0.01272576989348337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03263610115586402</v>
+        <v>0.03212069925176747</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03674009369316567</v>
+        <v>0.03679123989216698</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03222763619353516</v>
+        <v>0.03175837827668852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06667179214777789</v>
+        <v>0.06981218675518951</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04429913828350861</v>
+        <v>0.04174379835770758</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06917657078655484</v>
+        <v>0.0619468742497016</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06821952002609073</v>
+        <v>0.0657086319631343</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03132815733541849</v>
+        <v>0.03205908699042444</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03354741107523995</v>
+        <v>0.03274833055109488</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05981393902090976</v>
+        <v>0.0602072435650161</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.01538024235624496</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.04748774779710386</v>
+        <v>0.04748774779710385</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01045646104141097</v>
+        <v>0.01034701604813648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01044791216077846</v>
+        <v>0.01037213965089343</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04688548200593172</v>
+        <v>0.04755117101537069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003996259099997674</v>
+        <v>0.004932870386840303</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006898964910341405</v>
+        <v>0.007474766020973828</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02403755150757969</v>
+        <v>0.02457273037758746</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009666114336475557</v>
+        <v>0.00977296963073393</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01055707939873659</v>
+        <v>0.01046716364487881</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04037261405243537</v>
+        <v>0.03941816931592179</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02574809286158345</v>
+        <v>0.02639923741141116</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0261772305985015</v>
+        <v>0.02511380864861859</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07263172486254479</v>
+        <v>0.07176667606763358</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02110467781657624</v>
+        <v>0.02101730640568359</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02411693530655258</v>
+        <v>0.025042344129195</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04304218328015507</v>
+        <v>0.04214114301609092</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0212965200439624</v>
+        <v>0.02076484247730067</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02188583520109891</v>
+        <v>0.0213294915581839</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05652888838636512</v>
+        <v>0.05535897369096705</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.02030657843191584</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0438947268147779</v>
+        <v>0.04389472681477789</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.01490782130765468</v>
@@ -1091,7 +1091,7 @@
         <v>0.01782993269028788</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.06634121346790314</v>
+        <v>0.06634121346790313</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.01871712847429216</v>
@@ -1100,7 +1100,7 @@
         <v>0.01896115058990431</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.0572274248433341</v>
+        <v>0.05722742484333409</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01401571380274407</v>
+        <v>0.0139675952464122</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01163850128604448</v>
+        <v>0.0115115089388421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03204105551052863</v>
+        <v>0.03075103924592545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007470169616419405</v>
+        <v>0.007521666424846186</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009655489087588476</v>
+        <v>0.009169390101631033</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05422466820459906</v>
+        <v>0.05513772004196048</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01205425142821449</v>
+        <v>0.01174362346709435</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01263802354593225</v>
+        <v>0.01281095962889734</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04911558033528761</v>
+        <v>0.04776400116692898</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04191098083094102</v>
+        <v>0.04292947762475482</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03281859181229638</v>
+        <v>0.03151398868779721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05934032001852983</v>
+        <v>0.05980859820289144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02629531298710534</v>
+        <v>0.02624215581982117</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03001019121779816</v>
+        <v>0.03108405597315778</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07914733783864904</v>
+        <v>0.07954365483600039</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02752186815811636</v>
+        <v>0.02747127053532135</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02750350461449359</v>
+        <v>0.02743858409503817</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06812043255833589</v>
+        <v>0.06716675002189681</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.03093853371573551</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.06420973975231989</v>
+        <v>0.0642097397523199</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.02514867678346781</v>
@@ -1224,25 +1224,25 @@
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.002054196118102329</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01968187201099747</v>
+        <v>0.01995131527734207</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02089479540355859</v>
+        <v>0.02161127238139368</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05271939071026369</v>
+        <v>0.05220936098201275</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01681323838149116</v>
+        <v>0.01707729392571974</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01726435348369038</v>
+        <v>0.01692798583771419</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04170547102609733</v>
+        <v>0.04171225471860515</v>
       </c>
     </row>
     <row r="21">
@@ -1253,29 +1253,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03614167242765751</v>
+        <v>0.03077130659907714</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02378816216021131</v>
+        <v>0.02278271892721612</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04091777174504237</v>
+        <v>0.04199686203722169</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04347050179630953</v>
+        <v>0.04252213118162058</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08066131099307156</v>
+        <v>0.08198073978628551</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03586651777125334</v>
+        <v>0.03597312111093574</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03527006552742633</v>
+        <v>0.03471446205296312</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0647996291652236</v>
+        <v>0.06401850503857394</v>
       </c>
     </row>
     <row r="22">
@@ -1305,7 +1305,7 @@
         <v>0.02043437457895114</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04683545024439652</v>
+        <v>0.04683545024439651</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.01702461035088123</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01119818314590972</v>
+        <v>0.0115265631742843</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01098731729328349</v>
+        <v>0.01111110555444208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04108240009515089</v>
+        <v>0.04122863746999892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01426477164004366</v>
+        <v>0.0141138195683752</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01579251340233769</v>
+        <v>0.01569339954090386</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0411709859139814</v>
+        <v>0.0415119160209078</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01410331631587423</v>
+        <v>0.01398757295623503</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01456625344561379</v>
+        <v>0.0140868188468046</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04267483495263861</v>
+        <v>0.0428318951469038</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0202822805294137</v>
+        <v>0.02059768494004494</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01938476117103113</v>
+        <v>0.01908679156584291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05399598075446166</v>
+        <v>0.05353446707185205</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02407073006778306</v>
+        <v>0.02356248761092269</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02621735209952379</v>
+        <v>0.02582234211326185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05273233981092006</v>
+        <v>0.05242492919663502</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02072583832535864</v>
+        <v>0.02078366513867968</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02088912619766367</v>
+        <v>0.020614645211139</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05098309759360688</v>
+        <v>0.05111402469871772</v>
       </c>
     </row>
     <row r="25">
@@ -1618,28 +1618,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2111</v>
+        <v>1898</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15657</v>
+        <v>14810</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2045</v>
+        <v>2136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10177</v>
+        <v>10721</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1953</v>
+        <v>1915</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5850</v>
+        <v>5727</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29015</v>
+        <v>29859</v>
       </c>
     </row>
     <row r="7">
@@ -1650,31 +1650,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6300</v>
+        <v>5890</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14054</v>
+        <v>13403</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32259</v>
+        <v>32050</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9415</v>
+        <v>10113</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13041</v>
+        <v>12694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25535</v>
+        <v>24875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10802</v>
+        <v>11175</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21105</v>
+        <v>21292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51229</v>
+        <v>52587</v>
       </c>
     </row>
     <row r="8">
@@ -1759,31 +1759,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15361</v>
+        <v>15050</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1736</v>
+        <v>1986</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5183</v>
+        <v>5355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4970</v>
+        <v>4953</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2093</v>
+        <v>2102</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23674</v>
+        <v>22916</v>
       </c>
     </row>
     <row r="11">
@@ -1794,31 +1794,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12049</v>
+        <v>13184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7478</v>
+        <v>6499</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32660</v>
+        <v>32097</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12448</v>
+        <v>13319</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12718</v>
+        <v>12479</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14766</v>
+        <v>15278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20557</v>
+        <v>20486</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14705</v>
+        <v>14838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43491</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="12">
@@ -1903,31 +1903,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6788</v>
+        <v>6868</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4822</v>
+        <v>4612</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15063</v>
+        <v>15599</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1101</v>
+        <v>1056</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1135</v>
+        <v>1241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4089</v>
+        <v>4267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8822</v>
+        <v>10159</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7779</v>
+        <v>8756</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21482</v>
+        <v>21143</v>
       </c>
     </row>
     <row r="15">
@@ -1938,31 +1938,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23125</v>
+        <v>23157</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16820</v>
+        <v>16575</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31385</v>
+        <v>32864</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11523</v>
+        <v>10859</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11492</v>
+        <v>10291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12791</v>
+        <v>12320</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27868</v>
+        <v>28518</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23082</v>
+        <v>22532</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39372</v>
+        <v>39631</v>
       </c>
     </row>
     <row r="16">
@@ -2047,31 +2047,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12119</v>
+        <v>11992</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12011</v>
+        <v>11924</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>53012</v>
+        <v>53765</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3056</v>
+        <v>3772</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5698</v>
+        <v>6173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20666</v>
+        <v>21127</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18595</v>
+        <v>18801</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20856</v>
+        <v>20678</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>80359</v>
+        <v>78459</v>
       </c>
     </row>
     <row r="19">
@@ -2082,31 +2082,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29842</v>
+        <v>30597</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30094</v>
+        <v>28872</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82123</v>
+        <v>81145</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16139</v>
+        <v>16072</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19918</v>
+        <v>20682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37006</v>
+        <v>36231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40969</v>
+        <v>39946</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43236</v>
+        <v>42137</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>112517</v>
+        <v>110188</v>
       </c>
     </row>
     <row r="20">
@@ -2191,31 +2191,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7156</v>
+        <v>7132</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7224</v>
+        <v>7145</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18167</v>
+        <v>17435</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5679</v>
+        <v>5718</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7128</v>
+        <v>6769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>44976</v>
+        <v>45733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>15319</v>
+        <v>14924</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17174</v>
+        <v>17409</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68586</v>
+        <v>66698</v>
       </c>
     </row>
     <row r="23">
@@ -2226,31 +2226,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21400</v>
+        <v>21920</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20371</v>
+        <v>19561</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33645</v>
+        <v>33910</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19991</v>
+        <v>19950</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22155</v>
+        <v>22948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>65648</v>
+        <v>65977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34976</v>
+        <v>34912</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>37376</v>
+        <v>37288</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>95124</v>
+        <v>93793</v>
       </c>
     </row>
     <row r="24">
@@ -2339,25 +2339,25 @@
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21834</v>
+        <v>22133</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22609</v>
+        <v>23384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>44474</v>
+        <v>44044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>23139</v>
+        <v>23502</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>23638</v>
+        <v>23177</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>45076</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="27">
@@ -2368,29 +2368,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9646</v>
+        <v>8212</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5643</v>
+        <v>5405</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45392</v>
+        <v>46589</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>47036</v>
+        <v>46010</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>68046</v>
+        <v>69159</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>49361</v>
+        <v>49507</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>48291</v>
+        <v>47530</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>70037</v>
+        <v>69193</v>
       </c>
     </row>
     <row r="28">
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>38319</v>
+        <v>39443</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>37200</v>
+        <v>37619</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>141301</v>
+        <v>141804</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>50596</v>
+        <v>50061</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>55773</v>
+        <v>55423</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>149472</v>
+        <v>150710</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>98284</v>
+        <v>97477</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>100759</v>
+        <v>97443</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>301710</v>
+        <v>302820</v>
       </c>
     </row>
     <row r="31">
@@ -2510,31 +2510,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69404</v>
+        <v>70483</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65631</v>
+        <v>64623</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>185717</v>
+        <v>184129</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>85377</v>
+        <v>83574</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>92589</v>
+        <v>91194</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>191445</v>
+        <v>190329</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>144435</v>
+        <v>144838</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>144497</v>
+        <v>142598</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>360449</v>
+        <v>361374</v>
       </c>
     </row>
     <row r="32">
